--- a/Code/Data/ODI-2022.xlsx
+++ b/Code/Data/ODI-2022.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhoogendoorn/Dropbox/VU - Folder/Mijn Onderwijs Documenten/Data Mining Techniques/2022/Assignments/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\University\Artificial Intelligence\Data Mining Techniques\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72BEDB2-3D7F-1B44-B1D0-4B69E5958BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13821BFE-7419-4188-A51A-FCAFD5C475E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODI-2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1068">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -3215,6 +3215,15 @@
   </si>
   <si>
     <t>04:00 AM</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>5am</t>
+  </si>
+  <si>
+    <t>pizza</t>
   </si>
 </sst>
 </file>
@@ -3260,7 +3269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3268,9 +3277,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3486,19 +3496,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q305"/>
+  <dimension ref="A1:Q306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q306" sqref="Q306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="18.83203125" customWidth="1"/>
+    <col min="1" max="23" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44656.508409629634</v>
       </c>
@@ -3604,7 +3614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44656.508413587959</v>
       </c>
@@ -3657,7 +3667,7 @@
         <v>8964</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44656.508437083336</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44656.508441064812</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44656.508512546294</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44656.508569976853</v>
       </c>
@@ -3869,7 +3879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44656.508633287041</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44656.508666064816</v>
       </c>
@@ -3975,7 +3985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44656.508669930554</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44656.508673344906</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44656.508688877315</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44656.508699710648</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44656.508722083337</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44656.50875533565</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44656.508823645832</v>
       </c>
@@ -4346,7 +4356,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44656.508906331015</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44656.508925532413</v>
       </c>
@@ -4452,7 +4462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44656.50899869213</v>
       </c>
@@ -4505,7 +4515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44656.509077835653</v>
       </c>
@@ -4558,7 +4568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44656.50912018519</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44656.509157708337</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44656.509193506943</v>
       </c>
@@ -4717,7 +4727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44656.509197025458</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44656.50919950231</v>
       </c>
@@ -4823,7 +4833,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44656.509200891203</v>
       </c>
@@ -4876,7 +4886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44656.509214386577</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44656.509214895836</v>
       </c>
@@ -4982,7 +4992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44656.509233148143</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44656.509248182869</v>
       </c>
@@ -5088,7 +5098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44656.509307222223</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44656.509311273148</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44656.509326446758</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44656.509333518523</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44656.50935868056</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44656.50941648148</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44656.509433298612</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44656.509455069448</v>
       </c>
@@ -5512,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44656.509480578708</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44656.509497175924</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44656.509503969908</v>
       </c>
@@ -5671,7 +5681,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44656.509519837964</v>
       </c>
@@ -5724,7 +5734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44656.509522719905</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44656.509535219906</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44656.509546423607</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44656.509573773146</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44656.50957681713</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44656.509598263889</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44656.509606608801</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44656.509615868054</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44656.509648657404</v>
       </c>
@@ -6201,7 +6211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44656.509658483796</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44656.509685717596</v>
       </c>
@@ -6307,7 +6317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44656.509697233792</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44656.509713472224</v>
       </c>
@@ -6413,7 +6423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44656.509724837961</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44656.509775879633</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44656.509782766203</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44656.509791145829</v>
       </c>
@@ -6625,7 +6635,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44656.509791574077</v>
       </c>
@@ -6678,7 +6688,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44656.509837638892</v>
       </c>
@@ -6731,7 +6741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44656.509850462964</v>
       </c>
@@ -6784,7 +6794,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44656.50985696759</v>
       </c>
@@ -6837,7 +6847,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44656.509862939813</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44656.509882627317</v>
       </c>
@@ -6943,7 +6953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44656.509888472225</v>
       </c>
@@ -6996,7 +7006,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44656.509892870366</v>
       </c>
@@ -7049,7 +7059,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44656.509893101851</v>
       </c>
@@ -7102,7 +7112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44656.509925162041</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44656.509942997684</v>
       </c>
@@ -7208,7 +7218,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44656.509955069443</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44656.509974409724</v>
       </c>
@@ -7314,7 +7324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44656.509992071762</v>
       </c>
@@ -7367,7 +7377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44656.509999212962</v>
       </c>
@@ -7420,7 +7430,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44656.510004606476</v>
       </c>
@@ -7473,7 +7483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44656.51003769676</v>
       </c>
@@ -7526,7 +7536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44656.510044305556</v>
       </c>
@@ -7579,7 +7589,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44656.510055081017</v>
       </c>
@@ -7632,7 +7642,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44656.510059594904</v>
       </c>
@@ -7685,7 +7695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44656.51006508102</v>
       </c>
@@ -7738,7 +7748,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44656.510080162036</v>
       </c>
@@ -7791,7 +7801,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44656.510101550928</v>
       </c>
@@ -7844,7 +7854,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44656.510114745368</v>
       </c>
@@ -7897,7 +7907,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44656.510138587968</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44656.510155625001</v>
       </c>
@@ -8003,7 +8013,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44656.51018099537</v>
       </c>
@@ -8056,7 +8066,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44656.510202604171</v>
       </c>
@@ -8109,7 +8119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44656.510223981481</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44656.510229583335</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44656.510253773144</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44656.510283113428</v>
       </c>
@@ -8321,7 +8331,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44656.51033636574</v>
       </c>
@@ -8374,7 +8384,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44656.510377453698</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44656.510380949076</v>
       </c>
@@ -8480,7 +8490,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44656.510382291672</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44656.510406064815</v>
       </c>
@@ -8586,7 +8596,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>44656.510435497687</v>
       </c>
@@ -8639,7 +8649,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>44656.51044150463</v>
       </c>
@@ -8692,7 +8702,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>44656.510500798613</v>
       </c>
@@ -8745,7 +8755,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>44656.510518645839</v>
       </c>
@@ -8798,7 +8808,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>44656.510519872681</v>
       </c>
@@ -8851,7 +8861,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>44656.510550659717</v>
       </c>
@@ -8904,7 +8914,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>44656.510551527783</v>
       </c>
@@ -8957,7 +8967,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>44656.510565196761</v>
       </c>
@@ -9010,7 +9020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>44656.510585358796</v>
       </c>
@@ -9063,7 +9073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>44656.510596238426</v>
       </c>
@@ -9116,7 +9126,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>44656.510596932872</v>
       </c>
@@ -9169,7 +9179,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44656.510603344912</v>
       </c>
@@ -9222,7 +9232,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>44656.510619351851</v>
       </c>
@@ -9275,7 +9285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44656.510625763884</v>
       </c>
@@ -9328,7 +9338,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>44656.510651828707</v>
       </c>
@@ -9381,7 +9391,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44656.510657164356</v>
       </c>
@@ -9434,7 +9444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>44656.51070219907</v>
       </c>
@@ -9487,7 +9497,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>44656.510705266206</v>
       </c>
@@ -9540,7 +9550,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>44656.510726828703</v>
       </c>
@@ -9593,7 +9603,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44656.510750694448</v>
       </c>
@@ -9646,7 +9656,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44656.510765613421</v>
       </c>
@@ -9699,7 +9709,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>44656.510790370376</v>
       </c>
@@ -9752,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44656.510846689816</v>
       </c>
@@ -9805,7 +9815,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>44656.510853414351</v>
       </c>
@@ -9858,7 +9868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>44656.510885925927</v>
       </c>
@@ -9911,7 +9921,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>44656.510890231482</v>
       </c>
@@ -9964,7 +9974,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>44656.510891886574</v>
       </c>
@@ -10017,7 +10027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>44656.51090721065</v>
       </c>
@@ -10070,7 +10080,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44656.510907766205</v>
       </c>
@@ -10123,7 +10133,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44656.510912847225</v>
       </c>
@@ -10176,7 +10186,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44656.510919548615</v>
       </c>
@@ -10229,7 +10239,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44656.510922175927</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44656.510922685186</v>
       </c>
@@ -10335,7 +10345,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44656.510928958334</v>
       </c>
@@ -10388,7 +10398,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44656.510930520832</v>
       </c>
@@ -10441,7 +10451,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44656.510931099532</v>
       </c>
@@ -10494,7 +10504,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44656.510933530095</v>
       </c>
@@ -10547,7 +10557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44656.510934675927</v>
       </c>
@@ -10600,7 +10610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44656.510934837963</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44656.510935196755</v>
       </c>
@@ -10706,7 +10716,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44656.510937303239</v>
       </c>
@@ -10759,7 +10769,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>44656.510941909721</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>44656.510949155097</v>
       </c>
@@ -10865,7 +10875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44656.510949641204</v>
       </c>
@@ -10918,7 +10928,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44656.510951261575</v>
       </c>
@@ -10971,7 +10981,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44656.510957662038</v>
       </c>
@@ -11024,7 +11034,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>44656.510964872687</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>44656.510965266207</v>
       </c>
@@ -11130,7 +11140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>44656.510968750001</v>
       </c>
@@ -11183,7 +11193,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>44656.510969097224</v>
       </c>
@@ -11236,7 +11246,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>44656.510974236109</v>
       </c>
@@ -11289,7 +11299,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>44656.510974571764</v>
       </c>
@@ -11342,7 +11352,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>44656.510975543977</v>
       </c>
@@ -11395,7 +11405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>44656.510979293977</v>
       </c>
@@ -11448,7 +11458,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>44656.51098068287</v>
       </c>
@@ -11501,7 +11511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>44656.510984340275</v>
       </c>
@@ -11554,7 +11564,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44656.510984444445</v>
       </c>
@@ -11607,7 +11617,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44656.510984780092</v>
       </c>
@@ -11660,7 +11670,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44656.51098875</v>
       </c>
@@ -11713,7 +11723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>44656.510991261574</v>
       </c>
@@ -11766,7 +11776,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>44656.51099505787</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>44656.510999965278</v>
       </c>
@@ -11872,7 +11882,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>44656.511001157407</v>
       </c>
@@ -11925,7 +11935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>44656.511002847226</v>
       </c>
@@ -11978,7 +11988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>44656.511009340276</v>
       </c>
@@ -12031,7 +12041,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>44656.511012175921</v>
       </c>
@@ -12084,7 +12094,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>44656.511012280098</v>
       </c>
@@ -12137,7 +12147,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44656.511012951392</v>
       </c>
@@ -12190,7 +12200,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44656.511015567128</v>
       </c>
@@ -12243,7 +12253,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44656.511017905097</v>
       </c>
@@ -12296,7 +12306,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44656.511023483792</v>
       </c>
@@ -12349,7 +12359,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44656.511025138891</v>
       </c>
@@ -12402,7 +12412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44656.511028958332</v>
       </c>
@@ -12455,7 +12465,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44656.511031481481</v>
       </c>
@@ -12508,7 +12518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44656.511033113427</v>
       </c>
@@ -12561,7 +12571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44656.511041331018</v>
       </c>
@@ -12614,7 +12624,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44656.511045983796</v>
       </c>
@@ -12667,7 +12677,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44656.511056469906</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44656.511057141208</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44656.511059178243</v>
       </c>
@@ -12826,7 +12836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>44656.511061805555</v>
       </c>
@@ -12879,7 +12889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44656.511066805557</v>
       </c>
@@ -12932,7 +12942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>44656.511067500003</v>
       </c>
@@ -12985,7 +12995,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44656.511069502318</v>
       </c>
@@ -13038,7 +13048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>44656.511075381946</v>
       </c>
@@ -13091,7 +13101,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>44656.511075543982</v>
       </c>
@@ -13144,7 +13154,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>44656.511078888885</v>
       </c>
@@ -13197,7 +13207,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>44656.511080312499</v>
       </c>
@@ -13250,7 +13260,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>44656.511082118057</v>
       </c>
@@ -13303,7 +13313,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>44656.511083275458</v>
       </c>
@@ -13356,7 +13366,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>44656.511088726853</v>
       </c>
@@ -13409,7 +13419,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44656.511091006949</v>
       </c>
@@ -13462,7 +13472,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44656.511094444446</v>
       </c>
@@ -13515,7 +13525,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>44656.51109511574</v>
       </c>
@@ -13568,7 +13578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44656.511102002318</v>
       </c>
@@ -13621,7 +13631,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>44656.511103321754</v>
       </c>
@@ -13674,7 +13684,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44656.511103483797</v>
       </c>
@@ -13727,7 +13737,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44656.511103622688</v>
       </c>
@@ -13780,7 +13790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>44656.511107372688</v>
       </c>
@@ -13833,7 +13843,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44656.511108657403</v>
       </c>
@@ -13886,7 +13896,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>44656.511110601852</v>
       </c>
@@ -13939,7 +13949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44656.511112627311</v>
       </c>
@@ -13992,7 +14002,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>44656.511114780093</v>
       </c>
@@ -14045,7 +14055,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44656.511120497686</v>
       </c>
@@ -14098,7 +14108,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>44656.511126226847</v>
       </c>
@@ -14151,7 +14161,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>44656.51112758102</v>
       </c>
@@ -14204,7 +14214,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44656.511127685182</v>
       </c>
@@ -14257,7 +14267,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44656.51112841435</v>
       </c>
@@ -14310,7 +14320,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44656.511130983796</v>
       </c>
@@ -14363,7 +14373,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44656.51113111111</v>
       </c>
@@ -14416,7 +14426,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>44656.511136365742</v>
       </c>
@@ -14469,7 +14479,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44656.511136956018</v>
       </c>
@@ -14522,7 +14532,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>44656.51113900463</v>
       </c>
@@ -14575,7 +14585,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44656.511139884256</v>
       </c>
@@ -14628,7 +14638,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>44656.511140717594</v>
       </c>
@@ -14681,7 +14691,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>44656.511140879629</v>
       </c>
@@ -14734,7 +14744,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>44656.511143124997</v>
       </c>
@@ -14787,7 +14797,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>44656.511145763885</v>
       </c>
@@ -14840,7 +14850,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>44656.511148252313</v>
       </c>
@@ -14893,7 +14903,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>44656.51116440972</v>
       </c>
@@ -14946,7 +14956,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>44656.511166701384</v>
       </c>
@@ -14999,7 +15009,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>44656.511170509257</v>
       </c>
@@ -15052,7 +15062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>44656.511175358799</v>
       </c>
@@ -15105,7 +15115,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>44656.511175497682</v>
       </c>
@@ -15158,7 +15168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>44656.511180150468</v>
       </c>
@@ -15211,7 +15221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>44656.511180844907</v>
       </c>
@@ -15264,7 +15274,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>44656.511181354166</v>
       </c>
@@ -15317,7 +15327,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>44656.511181377311</v>
       </c>
@@ -15370,7 +15380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>44656.511183379625</v>
       </c>
@@ -15423,7 +15433,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>44656.51118346065</v>
       </c>
@@ -15476,7 +15486,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>44656.511184710645</v>
       </c>
@@ -15529,7 +15539,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>44656.511204340277</v>
       </c>
@@ -15582,7 +15592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>44656.511208622687</v>
       </c>
@@ -15635,7 +15645,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>44656.511208761571</v>
       </c>
@@ -15688,7 +15698,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>44656.511209583332</v>
       </c>
@@ -15741,7 +15751,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>44656.511210439814</v>
       </c>
@@ -15794,7 +15804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>44656.511217245366</v>
       </c>
@@ -15847,7 +15857,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>44656.511218981483</v>
       </c>
@@ -15900,7 +15910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>44656.5112190625</v>
       </c>
@@ -15953,7 +15963,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>44656.511220185188</v>
       </c>
@@ -16006,7 +16016,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44656.511221979163</v>
       </c>
@@ -16059,7 +16069,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44656.511224016205</v>
       </c>
@@ -16112,7 +16122,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44656.511228715273</v>
       </c>
@@ -16165,7 +16175,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44656.511234895836</v>
       </c>
@@ -16218,7 +16228,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44656.511235231483</v>
       </c>
@@ -16271,7 +16281,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44656.511237314815</v>
       </c>
@@ -16324,7 +16334,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44656.511237696759</v>
       </c>
@@ -16377,7 +16387,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44656.511237858795</v>
       </c>
@@ -16430,7 +16440,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44656.511238009261</v>
       </c>
@@ -16483,7 +16493,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44656.51124305556</v>
       </c>
@@ -16536,7 +16546,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44656.511243553236</v>
       </c>
@@ -16589,7 +16599,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44656.511252581018</v>
       </c>
@@ -16642,7 +16652,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44656.511275138888</v>
       </c>
@@ -16695,7 +16705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44656.511283553242</v>
       </c>
@@ -16748,7 +16758,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44656.511302349536</v>
       </c>
@@ -16801,7 +16811,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44656.511315995369</v>
       </c>
@@ -16854,7 +16864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44656.511327233791</v>
       </c>
@@ -16907,7 +16917,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44656.511330150461</v>
       </c>
@@ -16960,7 +16970,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44656.511332719907</v>
       </c>
@@ -17013,7 +17023,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44656.511332847222</v>
       </c>
@@ -17066,7 +17076,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44656.511342199075</v>
       </c>
@@ -17119,7 +17129,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44656.511342280093</v>
       </c>
@@ -17172,7 +17182,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44656.511347314816</v>
       </c>
@@ -17225,7 +17235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44656.511348078704</v>
       </c>
@@ -17278,7 +17288,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44656.511368888889</v>
       </c>
@@ -17331,7 +17341,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44656.511370567125</v>
       </c>
@@ -17384,7 +17394,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44656.511375671296</v>
       </c>
@@ -17437,7 +17447,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44656.511387175924</v>
       </c>
@@ -17490,7 +17500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44656.511413900458</v>
       </c>
@@ -17543,7 +17553,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44656.511418298614</v>
       </c>
@@ -17596,7 +17606,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44656.511437372683</v>
       </c>
@@ -17649,7 +17659,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44656.511449641199</v>
       </c>
@@ -17702,7 +17712,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44656.511450659724</v>
       </c>
@@ -17755,7 +17765,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44656.511451620376</v>
       </c>
@@ -17808,7 +17818,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44656.511513159727</v>
       </c>
@@ -17861,7 +17871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44656.51151621528</v>
       </c>
@@ -17914,7 +17924,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>44656.511520462962</v>
       </c>
@@ -17967,7 +17977,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>44656.511566597226</v>
       </c>
@@ -18020,7 +18030,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>44656.511677349539</v>
       </c>
@@ -18073,7 +18083,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>44656.511689236111</v>
       </c>
@@ -18126,7 +18136,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>44656.511691874999</v>
       </c>
@@ -18179,7 +18189,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>44656.511714490742</v>
       </c>
@@ -18232,7 +18242,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>44656.511732847226</v>
       </c>
@@ -18285,7 +18295,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>44656.511769166667</v>
       </c>
@@ -18338,7 +18348,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>44656.511791087964</v>
       </c>
@@ -18391,7 +18401,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>44656.511836631944</v>
       </c>
@@ -18444,7 +18454,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>44656.511924027778</v>
       </c>
@@ -18497,7 +18507,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>44656.511934120368</v>
       </c>
@@ -18550,7 +18560,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>44656.512020613431</v>
       </c>
@@ -18603,7 +18613,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>44656.512518020834</v>
       </c>
@@ -18656,7 +18666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>44656.512829618056</v>
       </c>
@@ -18709,7 +18719,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>44656.513328414352</v>
       </c>
@@ -18762,7 +18772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>44656.513466435186</v>
       </c>
@@ -18815,7 +18825,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>44656.513572361117</v>
       </c>
@@ -18868,7 +18878,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>44656.513691828703</v>
       </c>
@@ -18921,7 +18931,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>44656.514362071757</v>
       </c>
@@ -18974,7 +18984,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>44656.514455613426</v>
       </c>
@@ -19027,7 +19037,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>44656.514561620366</v>
       </c>
@@ -19080,7 +19090,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>44656.514619293986</v>
       </c>
@@ -19133,7 +19143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>44656.51476928241</v>
       </c>
@@ -19186,7 +19196,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>44656.51704648148</v>
       </c>
@@ -19239,7 +19249,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>44656.519542916663</v>
       </c>
@@ -19292,7 +19302,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>44656.523598333333</v>
       </c>
@@ -19345,7 +19355,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>44656.523952766205</v>
       </c>
@@ -19398,7 +19408,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44656.524667175923</v>
       </c>
@@ -19451,7 +19461,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>44656.525757025462</v>
       </c>
@@ -19504,7 +19514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44656.529156192133</v>
       </c>
@@ -19557,7 +19567,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>44656.537956053246</v>
       </c>
@@ -19610,7 +19620,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>44656.560631111111</v>
       </c>
@@ -19661,6 +19671,59 @@
       </c>
       <c r="Q305" s="3" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306" s="3">
+        <v>1</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I306" s="7">
+        <v>34981</v>
+      </c>
+      <c r="J306" s="3">
+        <v>0</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L306" s="3">
+        <v>50</v>
+      </c>
+      <c r="M306" s="3">
+        <v>10</v>
+      </c>
+      <c r="N306" s="3">
+        <v>123</v>
+      </c>
+      <c r="O306" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P306" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q306" s="3" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
